--- a/result/Правила охорони праці під час експлуатації навантажувачів.xlsx
+++ b/result/Правила охорони праці під час експлуатації навантажувачів.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Вопрос</t>
   </si>
@@ -25,347 +25,351 @@
     <t>Правильний ответ</t>
   </si>
   <si>
-    <t>Не дозволяється жінкам виконувати роботи:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Які зазначені в Переліку важких робіт та робіт із шкідливими і небезпечними умовами праці, на яких забороняється застосування праці жінок, затвердженому наказом Міністерства охорони здоров’я України
-Підіймати та переміщувати вантажі відповідно до Граничних норм піднімання та переміщення важких речей жінками
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Все перелічене</t>
-  </si>
-  <si>
-    <t>На підприємстві, де можлива дія на шкіру шкідливих речовин необхідно:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Забезпечуються працівників змиваючими і знешкоджуючими речовинами
-Заборонити використовувати для цього пральні порошки
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Площадки для зберігання транспортних засобів, що перевозять пально-мастильні матеріали, повинні розташовуватися на відстані не менше:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 м одна від одної і від площадок для зберігання інших транспортних засобів
-12 м одна від одної
-10 м одна від одної і від площадок для зберігання інших транспортних засобів
-</t>
-  </si>
-  <si>
-    <t>12 м одна від одної і від площадок для зберігання інших транспортних засобів</t>
-  </si>
-  <si>
-    <t>На території підприємства, яке експлуатує транспортні засоби, двигуни яких працюють на газовому паливі, потрібно передбачати :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Окрему площадку під навісом із негорючих матеріалів для поста зливу зрідженого нафтового газу в акумулюючі ємності
-Окрему площадку для поста  випуску стиснутого природного газу в акумулюючі ємності
-Зливати та випускати гази забороняється
-</t>
-  </si>
-  <si>
-    <t>Окрему площадку під навісом із негорючих матеріалів для поста зливу зрідженого нафтового газу в акумулюючі ємності</t>
-  </si>
-  <si>
-    <t>Якою повинна бути ширина проїздів на території підприємства:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ширина проїздів на території підприємства визначається габаритами автотранспорту
-ширина проїздів на території підприємства повинна бути не менше 6 м при двосторонньому русі і не менше 3 м - при односторонньому
-погоджується з автоінспекцією
-</t>
-  </si>
-  <si>
-    <t>ширина проїздів на території підприємства повинна бути не менше 6 м при двосторонньому русі і не менше 3 м - при односторонньому</t>
-  </si>
-  <si>
-    <t>Чи допускається  виконувати роботи з навантаження і розвантаження вантажів водіями:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">водіям автомобілів допускається за їх згодою виконувати роботи з навантаження і розвантаження вантажів масою (одне місце) не більше 20 кг
-визначається роботодавцем
-не допускається
-</t>
-  </si>
-  <si>
-    <t>водіям автомобілів допускається за їх згодою виконувати роботи з навантаження і розвантаження вантажів масою (одне місце) не більше 20 кг</t>
-  </si>
-  <si>
-    <t>В чому потрібно переконатися перед запуском двигуна:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">) перед запуском двигуна необхідно переконатися, що автомобіль справний
-перед запуском двигуна необхідно переконатися, що автомобіль загальмований стоянковим гальмом, а важіль перемикання передач (контролера) поставлений у нейтральне положення
-все перелічене
-</t>
-  </si>
-  <si>
-    <t>перед запуском двигуна необхідно переконатися, що автомобіль загальмований стоянковим гальмом, а важіль перемикання передач (контролера) поставлений у нейтральне положення</t>
-  </si>
-  <si>
-    <t>Якою повинна бути швидкість руху транспортних засобів по території підприємства:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">швидкість руху транспортних засобів по території підприємства не повинна перевищувати 15 км/год
-швидкість руху транспортних засобів по території підприємства не повинна перевищувати 20 км/год
-швидкість руху транспортних засобів по території підприємства не повинна перевищувати 10 км/год
-</t>
-  </si>
-  <si>
-    <t>швидкість руху транспортних засобів по території підприємства не повинна перевищувати 10 км/год</t>
-  </si>
-  <si>
-    <t>Що зобов’язаний виконати працівник у разі виявлення  порушень безпечного стану робочого місця, які він сам не може ліквідувати:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">він, не починаючи роботи, повинен повідомити про них посадовій особі, в обов’язки якої покладено здійснення контролю за безпечним виконанням робіт
-він, не починаючи роботи, повинен повідомити про них чергового по автопарку
-покинути місце аварії і повідомити відповідну аварійну службу
-</t>
-  </si>
-  <si>
-    <t>він, не починаючи роботи, повинен повідомити про них посадовій особі, в обов’язки якої покладено здійснення контролю за безпечним виконанням робіт</t>
-  </si>
-  <si>
-    <t>Як організовуються роботи з підвищеною небезпекою</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для виконання робіт з підвищеною небезпекою роботодавець наказом по підприємству визначає коло осіб, відповідальних за безпечне їх проведення
-На роботи з підвищеною небезпекою розробляються і вивішуються на робочих місцях технологічні карти та забезпечується їх виконання
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>На усіх вантажних місцях, що містять небезпечні речовини, повинні бути:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ярлики, що позначають: вид небезпечного вантажу, верх упаковки, наявність крихких посудин в упаковці
-Попереджувальні знаки
-Газоаналізатори
-</t>
-  </si>
-  <si>
-    <t>Ярлики, що позначають: вид небезпечного вантажу, верх упаковки, наявність крихких посудин в упаковці</t>
-  </si>
-  <si>
-    <t>Акт готовності підйомника після монтажу складається:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Організацією, яка його змонтувала
-Організацією, яка його змонтувала та власником
-Спеціалізованою організацією
-</t>
-  </si>
-  <si>
-    <t>Організацією, яка його змонтувала</t>
-  </si>
-  <si>
-    <t>Пости миття транспортних засобів відокремлюються від інших приміщень (постів)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Глухими стінками з пароізоляцією і водотривким покриттям
-Стінками з пароізоляцією і водотривким покриттям
-Стінками обладнаними тамбурами-шлюзами
-</t>
-  </si>
-  <si>
-    <t>Глухими стінками з пароізоляцією і водотривким покриттям</t>
-  </si>
-  <si>
-    <t>Входи у приміщення виконання акумуляторних робіт і ремонту паливної апаратури:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Необхідно відокремлювати від інших суміжних приміщень, коридорів і сходових кліток тамбур-шлюзами
-Двері цих приміщень повинні відчинятися назовні
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Ворота основного в’їзду на територію підприємства слід розташовувати на відстані:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не менше найбільшої довжини транспортних засобів, що експлуатуються на підприємстві, включаючи автопоїзди, від основного проїзду вулиці, дороги
-Не менше 12 м
-Відповідно до Правил дорожнього руху
-</t>
-  </si>
-  <si>
-    <t>Не менше найбільшої довжини транспортних засобів, що експлуатуються на підприємстві, включаючи автопоїзди, від основного проїзду вулиці, дороги</t>
-  </si>
-  <si>
-    <t>Сфера поширення цих Правил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вимоги Правил поширюються на суб’єктів господарювання, які організовують або здійснюють роботи на  транспорті
-Вимоги Правил поширюються на суб’єктів господарювання, які організовують або здійснюють роботи на автомобільному транспорті
-Вимоги Правил поширюються на суб’єктів господарювання, які організовують або здійснюють роботи на автомобільному та внутрішньозаводському транспорті
-</t>
-  </si>
-  <si>
-    <t>Вимоги Правил поширюються на суб’єктів господарювання, які організовують або здійснюють роботи на автомобільному транспорті</t>
-  </si>
-  <si>
-    <t>Як повинен здійснюватися рух транспортних засобів територією підприємства:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">згідно схеми руху
-згідно технологічних карт
-все перелічене
-</t>
-  </si>
-  <si>
-    <t>згідно схеми руху</t>
-  </si>
-  <si>
-    <t>Вимоги до клапану гідросистеми підйомника</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Клапан або пристрій мають спрацьовувати в межах робочих перевантажень від 120 % до 140 % вантажопідіймальності підйомника
-Усі контури гідравлічної системи мають бути оснащені запобіжним клапаном. Регульований запобіжний клапан має бути опломбований
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Позачерговий технічний огляд у разі закінчення граничного строку експлуатації проводиться:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">У визначеному уповноваженою організацією обсязі з урахуванням виконаних робіт під час проведення експертного обстеження підйомника
-У визначеному спеціалізованою організацією обсязі з урахуванням виконаних робіт під час проведення експертного обстеження підйомника
-Згідно настанови з експлуатації
-</t>
-  </si>
-  <si>
-    <t>У визначеному уповноваженою організацією обсязі з урахуванням виконаних робіт під час проведення експертного обстеження підйомника</t>
-  </si>
-  <si>
-    <t>При вимушеній зупинці автомобіля на узбіччі або на краю проїжджої частини дороги для проведення ремонту водій зобов’язаний:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">включити аварійну світлову сигналізацію
-одягти сигнальний жилет (за наявності) та установити знак аварійної зупинки або миготливий червоний ліхтар на відстані не ближче 20 м до транспортного засобу в населених пунктах та 40 м - за їх межами
-виконати все перелічене
-</t>
-  </si>
-  <si>
-    <t>виконати все перелічене</t>
-  </si>
-  <si>
-    <t>Газобалонні транспортні засоби повинні обладнуватися системою:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Перемикання виду палива
-Пожежогасіння
-Аварійної сигналізації
-</t>
-  </si>
-  <si>
-    <t>Перемикання виду палива</t>
-  </si>
-  <si>
-    <t>Як забороняється здійснювати запуск двигуна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">шляхом буксирування автомобіля
-перемикання ланцюга живлення стартера
-все перелічене
-</t>
-  </si>
-  <si>
-    <t>все перелічене</t>
-  </si>
-  <si>
-    <t>Згідно зі статтею 5 Закону України 'Про охорону праці' усі працівники повинні бути поінформовані роботодавцем під підпис про:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Умови праці на підприємстві, наявність на робочому місці, де вони будуть працювати, небезпечних і шкідливих виробничих факторів, які ще не усунуто, можливі наслідки їхнього впливу на здоров'я
-Про права працівників на пільги і компенсації за роботу в таких умовах відповідно до чинного законодавства та колективного договору
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Розташування виробничих та допоміжних будівель, споруд повинно відповідати:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Технологічному процесу обслуговування та ремонту транспортних засобів
-Вимогам Правил дорожнього руху
-Визначається роботодавцем
-</t>
-  </si>
-  <si>
-    <t>Технологічному процесу обслуговування та ремонту транспортних засобів</t>
-  </si>
-  <si>
-    <t>Що повинен мати кожен домкрат:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кожний домкрат повинен мати стопорні чи інші ефективні пристрої для обмеження ходу
-додаткову підставку
-манометр
-</t>
-  </si>
-  <si>
-    <t>кожний домкрат повинен мати стопорні чи інші ефективні пристрої для обмеження ходу</t>
-  </si>
-  <si>
-    <t>Де дозволяється стоянка власного транспорту і де забороняється його рух:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Визначається роботодавцем
-для стоянки власного транспорту слід передбачати місце на окремих площадках поза межами території підприємства. Рух особистого транспорту по території підприємства дозволяється за встановленим маршрутом
-для стоянки власного транспорту слід передбачати місце на окремих площадках поза межами території підприємства. Рух особистого транспорту по території підприємства забороняється
-</t>
-  </si>
-  <si>
-    <t>для стоянки власного транспорту слід передбачати місце на окремих площадках поза межами території підприємства. Рух особистого транспорту по території підприємства забороняється</t>
-  </si>
-  <si>
-    <t>Навантаження і розвантаження вантажів, кріплення їх тентів на транспортних засобах, а також відкривання та закривання бортів автомобілів, напівпричепів та причепів здійснюється:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Силами і засобами вантажовідправників, вантажоодержувачів або спеціалізованих організацій
-Водіями
-Експедиторами
-</t>
-  </si>
-  <si>
-    <t>Силами і засобами вантажовідправників, вантажоодержувачів або спеціалізованих організацій</t>
-  </si>
-  <si>
-    <t>Як повинен виконуватися запуск двигуна:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">запуск двигуна повинен виконуватися за допомогою стартера. Використовувати пускову рукоятку допускається тільки у виняткових випадках
-запуск двигуна повинен виконуватися за допомогою пускової рукоятки. Запуск з буксира заборонено
-запуск двигуна повинен виконуватися за допомогою пускової рукоятки. Запуск з буксира заборонено
-все перелічене
-</t>
-  </si>
-  <si>
-    <t>запуск двигуна повинен виконуватися за допомогою стартера. Використовувати пускову рукоятку допускається тільки у виняткових випадках</t>
-  </si>
-  <si>
-    <t>Під час виконання ремонтних, земляних та інших робіт на території підприємства:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Відкриті люки, траншеї і ями повинні бути огороджені
-У місцях переходу через траншеї встановлюються перехідні містки шириною не менше 1,0 м з перилами висотою 0,9 м
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Де дозволяється ремонтувати автомобілі на території підприємства</t>
-  </si>
-  <si>
-    <t xml:space="preserve">окремо від справних автомобілів
-на місці стоянки автомобіля
-ремонтувати автомобілі на території підприємства не допускається
-</t>
-  </si>
-  <si>
-    <t>окремо від справних автомобілів</t>
+    <t>Який опір має захисне заземлення?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Це більше 4 Ом
+Не більше 12 Ом
+Не більше 220 Ом
+</t>
+  </si>
+  <si>
+    <t>Це більше 4 Ом</t>
+  </si>
+  <si>
+    <t>Під час розбирання штабеля, навантажувач необхідно зупинити на відстані між кінцями вил і вантажем:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Впритул
+0,3 м
+1 м
+</t>
+  </si>
+  <si>
+    <t>0,3 м</t>
+  </si>
+  <si>
+    <t>Завдання охорони праці є збереження ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Життя працівників
+Здоров’я працівників
+Працездатності працівників
+Довкілля
+Всі відповіді
+</t>
+  </si>
+  <si>
+    <t>Всі відповіді</t>
+  </si>
+  <si>
+    <t>Під час руху навантажувача піднімати або опускати вантаж:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нe дозволяється
+Дозволяється, якщо маса вантажу незначна у порівнянні з вантажопідємністю
+</t>
+  </si>
+  <si>
+    <t>Нe дозволяється</t>
+  </si>
+  <si>
+    <t>Перед роботою по наряду-допуску проводиться інструктаж ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цільовий
+Первинний
+Вступний
+</t>
+  </si>
+  <si>
+    <t>Цільовий</t>
+  </si>
+  <si>
+    <t>Після закінчення або при перерві в роботі вантаж у піднятому стані …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заборонено залишати
+Дозволяється залишати, якщо він піднятий на висоту до 1 м
+</t>
+  </si>
+  <si>
+    <t>Заборонено залишати</t>
+  </si>
+  <si>
+    <t>Експлуатація незареєстрованого навантажувача:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не дозволяється
+Дозволяється, якщо навантажувач не залишає території підприємства
+</t>
+  </si>
+  <si>
+    <t>Не дозволяється</t>
+  </si>
+  <si>
+    <t>Мимовільний нахил вантажопідйомника з номінальним вантажем за 10 хв:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не дозволяється
+Має право не перевищувати 5 градусів
+</t>
+  </si>
+  <si>
+    <t>Має право не перевищувати 5 градусів</t>
+  </si>
+  <si>
+    <t>Скільки раз проводяться операції при динамічних випробуваннях?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+3
+5
+</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Динамічне випробування проводять вантажем що:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дорівнює вантажопідйомності
+Перевищує вантажопідйомність на 10%
+Перевищує вантажопідйомність на 25%
+</t>
+  </si>
+  <si>
+    <t>Перевищує вантажопідйомність на 10%</t>
+  </si>
+  <si>
+    <t>Яка максимальна тривалість робочого часу у тиждень?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 годин
+40 годин
+50 годин
+</t>
+  </si>
+  <si>
+    <t>40 годин</t>
+  </si>
+  <si>
+    <t>Важелі керування повинні ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мати фіксовані робочі положення
+Мають автоматично повертатися у нейтральне положення
+</t>
+  </si>
+  <si>
+    <t>Мають автоматично повертатися у нейтральне положення</t>
+  </si>
+  <si>
+    <t>Запобіжний клапан:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Має бути під замком за спеціальними дверцятами
+Має бути опломбований
+</t>
+  </si>
+  <si>
+    <t>Має бути опломбований</t>
+  </si>
+  <si>
+    <t>Люфт кермового колеса не повинен перевищувати:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не дозволяється
+10 град
+20 град
+</t>
+  </si>
+  <si>
+    <t>20 град</t>
+  </si>
+  <si>
+    <t>Якщо навантажувач має висоту підіймання понад 1800 м, він має бути обладнаний:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Захисним навісом
+Захисними гратами
+</t>
+  </si>
+  <si>
+    <t>Захисними гратами</t>
+  </si>
+  <si>
+    <t>Яким вогнегасником забороняється гасити електроустаткування?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВП
+ВВ
+ВВК
+</t>
+  </si>
+  <si>
+    <t>ВВ</t>
+  </si>
+  <si>
+    <t>Вантаж що примерз:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Забороняється підіймати
+Дозволяється підіймати якщо його маса незначна у порівнянні з вантажопідіймальністю
+</t>
+  </si>
+  <si>
+    <t>Забороняється підіймати</t>
+  </si>
+  <si>
+    <t>Вантажопідйомність номінальна - це маса вантажу, зазначена виробником, що може підіймати та транспортувати навантажувач:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мінімальна
+Максимальна
+</t>
+  </si>
+  <si>
+    <t>Максимальна</t>
+  </si>
+  <si>
+    <t>Горизонтальна частина, що несе вантаж, називається:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Голка
+Ікло
+Захват
+</t>
+  </si>
+  <si>
+    <t>Ікло</t>
+  </si>
+  <si>
+    <t>Укладати краном вантаж на вила ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дозволяється, якщо відома його маса
+Забороняється
+</t>
+  </si>
+  <si>
+    <t>Забороняється</t>
+  </si>
+  <si>
+    <t>Організація безпечного проведення робіт навантажувачем здійснюється відповідно до ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розроблених і затверджених технологічних карт
+Своєчасного проведення інструктажів
+</t>
+  </si>
+  <si>
+    <t>Розроблених і затверджених технологічних карт</t>
+  </si>
+  <si>
+    <t>Залізничні колії рекомендовано переїжджати:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Строго поперек
+Навкіс
+</t>
+  </si>
+  <si>
+    <t>Навкіс</t>
+  </si>
+  <si>
+    <t>Технічний персонал повинен проводити щоденне обслуговування:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перед роботою
+Після роботи
+</t>
+  </si>
+  <si>
+    <t>Після роботи</t>
+  </si>
+  <si>
+    <t>Змінні вантажозахоплювальні пристрої мають витримувати роботу з перевантаженням:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10%
+20%
+Перевантаження не допустиме
+</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>Стоянкове гальмо повинно утримувати навантажувач на найбільшому ухилі протягом менш, ніж:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 хв
+5 хв
+10 хв
+</t>
+  </si>
+  <si>
+    <t>10 хв</t>
+  </si>
+  <si>
+    <t>Яка відповідальність не передбачена законодавством України?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моральна
+Адміністративна
+Матеріальна
+Дисціплінарна
+Кримінальна
+</t>
+  </si>
+  <si>
+    <t>Моральна</t>
+  </si>
+  <si>
+    <t>Заземлення підключають до:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неструмоведучих частин
+Струмоведучих частин
+</t>
+  </si>
+  <si>
+    <t>Неструмоведучих частин</t>
+  </si>
+  <si>
+    <t>Під час підйому чи спуску ухилом, крутість якого більше 10%, вантаж повинен бути розміщений:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">У напрямок підйому
+У напрямку спуску
+</t>
+  </si>
+  <si>
+    <t>У напрямок підйому</t>
+  </si>
+  <si>
+    <t>Чи мають право працівники підприємств надавати медичну допомогу?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не мають права
+Мають право
+</t>
+  </si>
+  <si>
+    <t>Не мають права</t>
+  </si>
+  <si>
+    <t>Чи має право постраждалий внаслідок нещасного випадку брати участь у засіданнях комісії з розслідування нещасного випадку?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Має право
+Не має права
+</t>
+  </si>
+  <si>
+    <t>Має право</t>
   </si>
 </sst>
 </file>
@@ -733,315 +737,315 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
